--- a/trait_stressor_rankings/trait_stressor_adcap_specific_Nat.xlsx
+++ b/trait_stressor_rankings/trait_stressor_adcap_specific_Nat.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\natha\Dropbox\Fiji_workshop_after\analyses\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0ACE3E-E9E3-44DD-A934-929FE20A8508}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1890" yWindow="1860" windowWidth="25125" windowHeight="13620" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1860" windowWidth="25120" windowHeight="13620" tabRatio="500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="air_turbulence" sheetId="6" r:id="rId1"/>
@@ -38,8 +32,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="adcap_traits.csv1" type="6" refreshedVersion="0" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="adcap_traits.csv1" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:Users:ohara:github:spp_vulnerability:int:adcap_traits.csv" comma="1">
       <textFields count="3">
         <textField type="text"/>
@@ -52,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="54">
   <si>
     <t>no</t>
   </si>
@@ -221,7 +215,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -373,7 +367,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="adcap_traits_1" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="adcap_traits_1" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -697,21 +691,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A644FE29-53B8-4E89-9907-F6B76271C042}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="53.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="12" customFormat="1">
       <c r="A1" s="13" t="s">
         <v>38</v>
       </c>
@@ -731,7 +725,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="9" t="s">
         <v>18</v>
       </c>
@@ -749,7 +743,7 @@
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="9" t="s">
         <v>18</v>
       </c>
@@ -765,7 +759,7 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="9" t="s">
         <v>18</v>
       </c>
@@ -781,7 +775,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="9" t="s">
         <v>18</v>
       </c>
@@ -797,7 +791,7 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="9" t="s">
         <v>18</v>
       </c>
@@ -813,7 +807,7 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="9" t="s">
         <v>18</v>
       </c>
@@ -829,7 +823,7 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="9" t="s">
         <v>18</v>
       </c>
@@ -845,7 +839,7 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="9" t="s">
         <v>18</v>
       </c>
@@ -858,12 +852,10 @@
       <c r="D9" s="10">
         <v>1</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="E9" s="10"/>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="9" t="s">
         <v>18</v>
       </c>
@@ -881,7 +873,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="9" t="s">
         <v>18</v>
       </c>
@@ -897,7 +889,7 @@
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="9" t="s">
         <v>18</v>
       </c>
@@ -913,7 +905,7 @@
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="9" t="s">
         <v>18</v>
       </c>
@@ -929,7 +921,7 @@
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="9" t="s">
         <v>18</v>
       </c>
@@ -945,7 +937,7 @@
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="9" t="s">
         <v>18</v>
       </c>
@@ -961,7 +953,7 @@
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
@@ -977,7 +969,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
@@ -993,7 +985,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="5" t="s">
         <v>6</v>
       </c>
@@ -1011,7 +1003,7 @@
       </c>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="5" t="s">
         <v>6</v>
       </c>
@@ -1029,7 +1021,7 @@
       </c>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="5" t="s">
         <v>6</v>
       </c>
@@ -1047,7 +1039,7 @@
       </c>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="5" t="s">
         <v>6</v>
       </c>
@@ -1065,7 +1057,7 @@
       </c>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="5" t="s">
         <v>6</v>
       </c>
@@ -1083,7 +1075,7 @@
       </c>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="5" t="s">
         <v>6</v>
       </c>
@@ -1101,7 +1093,7 @@
       </c>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="5" t="s">
         <v>6</v>
       </c>
@@ -1119,7 +1111,7 @@
       </c>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="5" t="s">
         <v>6</v>
       </c>
@@ -1137,7 +1129,7 @@
       </c>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="5" t="s">
         <v>6</v>
       </c>
@@ -1155,7 +1147,7 @@
       </c>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="5" t="s">
         <v>6</v>
       </c>
@@ -1176,25 +1168,30 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A0CEA49-1036-410B-BCEC-7B0FAF7D3D22}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="53.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="12" customFormat="1">
       <c r="A1" s="13" t="s">
         <v>38</v>
       </c>
@@ -1214,7 +1211,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="9" t="s">
         <v>18</v>
       </c>
@@ -1232,7 +1229,7 @@
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="9" t="s">
         <v>18</v>
       </c>
@@ -1248,7 +1245,7 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="9" t="s">
         <v>18</v>
       </c>
@@ -1264,7 +1261,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="9" t="s">
         <v>18</v>
       </c>
@@ -1280,7 +1277,7 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="9" t="s">
         <v>18</v>
       </c>
@@ -1296,7 +1293,7 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="9" t="s">
         <v>18</v>
       </c>
@@ -1312,7 +1309,7 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="9" t="s">
         <v>18</v>
       </c>
@@ -1328,7 +1325,7 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="9" t="s">
         <v>18</v>
       </c>
@@ -1341,12 +1338,10 @@
       <c r="D9" s="10">
         <v>1</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="E9" s="10"/>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="9" t="s">
         <v>18</v>
       </c>
@@ -1364,7 +1359,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="9" t="s">
         <v>18</v>
       </c>
@@ -1380,7 +1375,7 @@
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="9" t="s">
         <v>18</v>
       </c>
@@ -1396,7 +1391,7 @@
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="9" t="s">
         <v>18</v>
       </c>
@@ -1412,7 +1407,7 @@
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="9" t="s">
         <v>18</v>
       </c>
@@ -1428,7 +1423,7 @@
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="9" t="s">
         <v>18</v>
       </c>
@@ -1444,7 +1439,7 @@
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
@@ -1460,7 +1455,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1478,7 +1473,7 @@
       </c>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="5" t="s">
         <v>6</v>
       </c>
@@ -1496,7 +1491,7 @@
       </c>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="5" t="s">
         <v>6</v>
       </c>
@@ -1514,7 +1509,7 @@
       </c>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="5" t="s">
         <v>6</v>
       </c>
@@ -1532,7 +1527,7 @@
       </c>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="5" t="s">
         <v>6</v>
       </c>
@@ -1550,7 +1545,7 @@
       </c>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="5" t="s">
         <v>6</v>
       </c>
@@ -1568,7 +1563,7 @@
       </c>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="5" t="s">
         <v>6</v>
       </c>
@@ -1586,7 +1581,7 @@
       </c>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="5" t="s">
         <v>6</v>
       </c>
@@ -1604,7 +1599,7 @@
       </c>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="5" t="s">
         <v>6</v>
       </c>
@@ -1622,7 +1617,7 @@
       </c>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="5" t="s">
         <v>6</v>
       </c>
@@ -1640,7 +1635,7 @@
       </c>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="5" t="s">
         <v>6</v>
       </c>
@@ -1661,25 +1656,30 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33AEFD18-B9F2-42AC-A4A7-EFDE640DDC65}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="53.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="12" customFormat="1">
       <c r="A1" s="13" t="s">
         <v>38</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="9" t="s">
         <v>18</v>
       </c>
@@ -1717,7 +1717,7 @@
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="9" t="s">
         <v>18</v>
       </c>
@@ -1733,7 +1733,7 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="9" t="s">
         <v>18</v>
       </c>
@@ -1749,7 +1749,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="9" t="s">
         <v>18</v>
       </c>
@@ -1765,7 +1765,7 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="9" t="s">
         <v>18</v>
       </c>
@@ -1781,7 +1781,7 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="9" t="s">
         <v>18</v>
       </c>
@@ -1797,7 +1797,7 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="9" t="s">
         <v>18</v>
       </c>
@@ -1813,7 +1813,7 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="9" t="s">
         <v>18</v>
       </c>
@@ -1826,12 +1826,10 @@
       <c r="D9" s="10">
         <v>0</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="E9" s="10"/>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="9" t="s">
         <v>18</v>
       </c>
@@ -1847,7 +1845,7 @@
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="9" t="s">
         <v>18</v>
       </c>
@@ -1863,7 +1861,7 @@
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="9" t="s">
         <v>18</v>
       </c>
@@ -1879,7 +1877,7 @@
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="9" t="s">
         <v>18</v>
       </c>
@@ -1895,7 +1893,7 @@
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="9" t="s">
         <v>18</v>
       </c>
@@ -1911,7 +1909,7 @@
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="9" t="s">
         <v>18</v>
       </c>
@@ -1927,7 +1925,7 @@
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
@@ -1943,7 +1941,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1959,7 +1957,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="5" t="s">
         <v>6</v>
       </c>
@@ -1977,7 +1975,7 @@
       </c>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="5" t="s">
         <v>6</v>
       </c>
@@ -1995,7 +1993,7 @@
       </c>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="5" t="s">
         <v>6</v>
       </c>
@@ -2013,7 +2011,7 @@
       </c>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="5" t="s">
         <v>6</v>
       </c>
@@ -2031,7 +2029,7 @@
       </c>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="5" t="s">
         <v>6</v>
       </c>
@@ -2049,7 +2047,7 @@
       </c>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="5" t="s">
         <v>6</v>
       </c>
@@ -2067,7 +2065,7 @@
       </c>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="5" t="s">
         <v>6</v>
       </c>
@@ -2085,7 +2083,7 @@
       </c>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="5" t="s">
         <v>6</v>
       </c>
@@ -2103,7 +2101,7 @@
       </c>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="5" t="s">
         <v>6</v>
       </c>
@@ -2121,7 +2119,7 @@
       </c>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="5" t="s">
         <v>6</v>
       </c>
@@ -2142,25 +2140,30 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F19E1911-DD28-4149-961D-01356A2A8DA7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="53.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="12" customFormat="1">
       <c r="A1" s="13" t="s">
         <v>38</v>
       </c>
@@ -2180,7 +2183,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="9" t="s">
         <v>18</v>
       </c>
@@ -2198,7 +2201,7 @@
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="9" t="s">
         <v>18</v>
       </c>
@@ -2214,7 +2217,7 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="9" t="s">
         <v>18</v>
       </c>
@@ -2230,7 +2233,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="9" t="s">
         <v>18</v>
       </c>
@@ -2246,7 +2249,7 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="9" t="s">
         <v>18</v>
       </c>
@@ -2262,7 +2265,7 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="9" t="s">
         <v>18</v>
       </c>
@@ -2278,7 +2281,7 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="9" t="s">
         <v>18</v>
       </c>
@@ -2294,7 +2297,7 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="9" t="s">
         <v>18</v>
       </c>
@@ -2307,12 +2310,10 @@
       <c r="D9" s="10">
         <v>1</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="E9" s="10"/>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="9" t="s">
         <v>18</v>
       </c>
@@ -2328,7 +2329,7 @@
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="9" t="s">
         <v>18</v>
       </c>
@@ -2344,7 +2345,7 @@
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="9" t="s">
         <v>18</v>
       </c>
@@ -2360,7 +2361,7 @@
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="9" t="s">
         <v>18</v>
       </c>
@@ -2376,7 +2377,7 @@
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="9" t="s">
         <v>18</v>
       </c>
@@ -2394,7 +2395,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="9" t="s">
         <v>18</v>
       </c>
@@ -2410,7 +2411,7 @@
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
@@ -2426,7 +2427,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
@@ -2442,7 +2443,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="5" t="s">
         <v>6</v>
       </c>
@@ -2462,7 +2463,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="5" t="s">
         <v>6</v>
       </c>
@@ -2480,7 +2481,7 @@
       </c>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="5" t="s">
         <v>6</v>
       </c>
@@ -2498,7 +2499,7 @@
       </c>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="5" t="s">
         <v>6</v>
       </c>
@@ -2516,7 +2517,7 @@
       </c>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="5" t="s">
         <v>6</v>
       </c>
@@ -2534,7 +2535,7 @@
       </c>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="5" t="s">
         <v>6</v>
       </c>
@@ -2552,7 +2553,7 @@
       </c>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="5" t="s">
         <v>6</v>
       </c>
@@ -2570,7 +2571,7 @@
       </c>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="5" t="s">
         <v>6</v>
       </c>
@@ -2588,7 +2589,7 @@
       </c>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="5" t="s">
         <v>6</v>
       </c>
@@ -2606,7 +2607,7 @@
       </c>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="5" t="s">
         <v>6</v>
       </c>
@@ -2626,26 +2627,31 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="53.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="12" customFormat="1">
       <c r="A1" s="13" t="s">
         <v>38</v>
       </c>
@@ -2665,7 +2671,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="9" t="s">
         <v>18</v>
       </c>
@@ -2685,7 +2691,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="9" t="s">
         <v>18</v>
       </c>
@@ -2701,7 +2707,7 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="9" t="s">
         <v>18</v>
       </c>
@@ -2717,7 +2723,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="9" t="s">
         <v>18</v>
       </c>
@@ -2733,7 +2739,7 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="9" t="s">
         <v>18</v>
       </c>
@@ -2749,7 +2755,7 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="9" t="s">
         <v>18</v>
       </c>
@@ -2765,7 +2771,7 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="9" t="s">
         <v>18</v>
       </c>
@@ -2781,7 +2787,7 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="9" t="s">
         <v>18</v>
       </c>
@@ -2794,12 +2800,10 @@
       <c r="D9" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>41</v>
-      </c>
+      <c r="E9" s="10"/>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="9" t="s">
         <v>18</v>
       </c>
@@ -2815,7 +2819,7 @@
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="9" t="s">
         <v>18</v>
       </c>
@@ -2831,7 +2835,7 @@
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="9" t="s">
         <v>18</v>
       </c>
@@ -2847,7 +2851,7 @@
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="9" t="s">
         <v>18</v>
       </c>
@@ -2863,7 +2867,7 @@
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="9" t="s">
         <v>18</v>
       </c>
@@ -2879,7 +2883,7 @@
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="9" t="s">
         <v>18</v>
       </c>
@@ -2895,7 +2899,7 @@
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
@@ -2911,7 +2915,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
@@ -2927,7 +2931,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="5" t="s">
         <v>6</v>
       </c>
@@ -2945,7 +2949,7 @@
       </c>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="5" t="s">
         <v>6</v>
       </c>
@@ -2963,7 +2967,7 @@
       </c>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="5" t="s">
         <v>6</v>
       </c>
@@ -2981,7 +2985,7 @@
       </c>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="5" t="s">
         <v>6</v>
       </c>
@@ -2999,7 +3003,7 @@
       </c>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="5" t="s">
         <v>6</v>
       </c>
@@ -3017,7 +3021,7 @@
       </c>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="5" t="s">
         <v>6</v>
       </c>
@@ -3035,7 +3039,7 @@
       </c>
       <c r="F23" s="4"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="5" t="s">
         <v>6</v>
       </c>
@@ -3053,7 +3057,7 @@
       </c>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="5" t="s">
         <v>6</v>
       </c>
@@ -3071,7 +3075,7 @@
       </c>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="5" t="s">
         <v>6</v>
       </c>
@@ -3089,7 +3093,7 @@
       </c>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="5" t="s">
         <v>6</v>
       </c>
@@ -3119,21 +3123,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="53.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="53.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="12" customFormat="1">
       <c r="A1" s="13" t="s">
         <v>38</v>
       </c>
@@ -3153,7 +3157,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="9" t="s">
         <v>18</v>
       </c>
@@ -3171,7 +3175,7 @@
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="9" t="s">
         <v>18</v>
       </c>
@@ -3187,7 +3191,7 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="9" t="s">
         <v>18</v>
       </c>
@@ -3203,7 +3207,7 @@
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="9" t="s">
         <v>18</v>
       </c>
@@ -3219,7 +3223,7 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" s="9" t="s">
         <v>18</v>
       </c>
@@ -3235,7 +3239,7 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" s="9" t="s">
         <v>18</v>
       </c>
@@ -3251,7 +3255,7 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" s="9" t="s">
         <v>18</v>
       </c>
@@ -3267,7 +3271,7 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" s="9" t="s">
         <v>18</v>
       </c>
@@ -3285,7 +3289,7 @@
       </c>
       <c r="F9" s="10"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" s="9" t="s">
         <v>18</v>
       </c>
@@ -3303,7 +3307,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" s="9" t="s">
         <v>18</v>
       </c>
@@ -3319,7 +3323,7 @@
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" s="9" t="s">
         <v>18</v>
       </c>
@@ -3335,7 +3339,7 @@
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" s="9" t="s">
         <v>18</v>
       </c>
@@ -3351,7 +3355,7 @@
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" s="9" t="s">
         <v>18</v>
       </c>
@@ -3367,7 +3371,7 @@
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" s="9" t="s">
         <v>18</v>
       </c>
@@ -3383,7 +3387,7 @@
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
@@ -3399,7 +3403,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
         <v>3</v>
       </c>
@@ -3415,7 +3419,7 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" s="5" t="s">
         <v>6</v>
       </c>
@@ -3433,7 +3437,7 @@
       </c>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="5" t="s">
         <v>6</v>
       </c>
@@ -3451,7 +3455,7 @@
       </c>
       <c r="F19" s="6"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" s="5" t="s">
         <v>6</v>
       </c>
@@ -3469,7 +3473,7 @@
       </c>
       <c r="F20" s="6"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="5" t="s">
         <v>6</v>
       </c>
@@ -3487,7 +3491,7 @@
       </c>
       <c r="F21" s="6"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="5" t="s">
         <v>6</v>
       </c>
@@ -3505,7 +3509,7 @@
       </c>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" s="5" t="s">
         <v>6</v>
       </c>
@@ -3525,7 +3529,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="5" t="s">
         <v>6</v>
       </c>
@@ -3543,7 +3547,7 @@
       </c>
       <c r="F24" s="4"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="5" t="s">
         <v>6</v>
       </c>
@@ -3561,7 +3565,7 @@
       </c>
       <c r="F25" s="4"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="5" t="s">
         <v>6</v>
       </c>
@@ -3579,7 +3583,7 @@
       </c>
       <c r="F26" s="4"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="5" t="s">
         <v>6</v>
       </c>
